--- a/Banco Central/10/3/Construcción 2003 a 2021 - Mensual.xlsx
+++ b/Banco Central/10/3/Construcción 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Serie</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8501,6 +8504,41 @@
         <v>42.4</v>
       </c>
     </row>
+    <row r="214" spans="1:11">
+      <c r="A214" t="s">
+        <v>223</v>
+      </c>
+      <c r="B214">
+        <v>36.7</v>
+      </c>
+      <c r="C214">
+        <v>44.5</v>
+      </c>
+      <c r="D214">
+        <v>44.5</v>
+      </c>
+      <c r="E214">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F214">
+        <v>89.8</v>
+      </c>
+      <c r="G214">
+        <v>60.9</v>
+      </c>
+      <c r="H214">
+        <v>50</v>
+      </c>
+      <c r="I214">
+        <v>45.3</v>
+      </c>
+      <c r="J214">
+        <v>43.8</v>
+      </c>
+      <c r="K214">
+        <v>43.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
